--- a/uchast.xlsx
+++ b/uchast.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katusha/Desktop/Shend-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E74EEAEE-D41B-0B44-8406-B639F0767018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B62F93-29A9-9E49-A16C-44D8DA4BED59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{69EDCAD3-68D2-9242-9A5A-15D2176049E9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{69EDCAD3-68D2-9242-9A5A-15D2176049E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -115,12 +115,6 @@
     <t>Волгина Инна Юрьевна</t>
   </si>
   <si>
-    <t>@kstverdi</t>
-  </si>
-  <si>
-    <t>Твердохлеб Ксения Валерьевна</t>
-  </si>
-  <si>
     <t>@vilkosa</t>
   </si>
   <si>
@@ -169,12 +163,6 @@
     <t>Александрова Анастасия Сергеевна</t>
   </si>
   <si>
-    <t>@vrgch</t>
-  </si>
-  <si>
-    <t>Фельдман Роман Вадимович</t>
-  </si>
-  <si>
     <t>@thhikk</t>
   </si>
   <si>
@@ -259,12 +247,6 @@
     <t>Фам Никита Туанович</t>
   </si>
   <si>
-    <t>@mashkaklyger</t>
-  </si>
-  <si>
-    <t>Крылова Мария Григорьевна</t>
-  </si>
-  <si>
     <t>@alyoona_mar</t>
   </si>
   <si>
@@ -301,18 +283,6 @@
     <t>Ахмедова Шахина Шомурод кизи</t>
   </si>
   <si>
-    <t>@Nim4d0ra</t>
-  </si>
-  <si>
-    <t>Мясникова Полина Алексеевна</t>
-  </si>
-  <si>
-    <t>@ViktoriaSaveleva</t>
-  </si>
-  <si>
-    <t>Савельева Виктория Валерьевна</t>
-  </si>
-  <si>
     <t>@call17</t>
   </si>
   <si>
@@ -349,12 +319,6 @@
     <t>Гришкина Марина Денисовна</t>
   </si>
   <si>
-    <t>@ivlexxx</t>
-  </si>
-  <si>
-    <t>Ивлева Вера Александровна</t>
-  </si>
-  <si>
     <t>@kuliiiichik</t>
   </si>
   <si>
@@ -409,9 +373,6 @@
     <t>Тадевосян Мария Врамовна</t>
   </si>
   <si>
-    <t>@1tolchok1</t>
-  </si>
-  <si>
     <t>Шашков Анатолий Сергеевич</t>
   </si>
   <si>
@@ -517,12 +478,6 @@
     <t>Рыжов Артём Михайлович</t>
   </si>
   <si>
-    <t>@koipaqwe</t>
-  </si>
-  <si>
-    <t>Лаптева Милана Виталиевна</t>
-  </si>
-  <si>
     <t>@valeria_aaaaaaaa</t>
   </si>
   <si>
@@ -649,36 +604,18 @@
     <t>@Pockemon05</t>
   </si>
   <si>
-    <t>Жидченко Алинаа Андреевна</t>
-  </si>
-  <si>
-    <t>@runnissa</t>
-  </si>
-  <si>
     <t>Проскурина Юлия Александровна</t>
   </si>
   <si>
     <t>@julsinda</t>
   </si>
   <si>
-    <t>Коваленко Александр Владимирович</t>
-  </si>
-  <si>
-    <t>El_Pedrano</t>
-  </si>
-  <si>
     <t>Герасимов Александр Андреевич</t>
   </si>
   <si>
     <t>@zuko_0</t>
   </si>
   <si>
-    <t>Мануйлов Александр Дмитриевич</t>
-  </si>
-  <si>
-    <t>@Sasha_Manuylov</t>
-  </si>
-  <si>
     <t>Герасимлюк Виктория Андреевна</t>
   </si>
   <si>
@@ -755,13 +692,76 @@
   </si>
   <si>
     <t>@bairta_batalaeva</t>
+  </si>
+  <si>
+    <t>Жидченко Алина Андреевна</t>
+  </si>
+  <si>
+    <t>#N/A</t>
+  </si>
+  <si>
+    <t>капустин артем владимирович</t>
+  </si>
+  <si>
+    <t>@imnotartem</t>
+  </si>
+  <si>
+    <t>Гашников Никита Семенович</t>
+  </si>
+  <si>
+    <t>@Fl1ckezz</t>
+  </si>
+  <si>
+    <t>Рогацевич Григорий Андреевич</t>
+  </si>
+  <si>
+    <t>@prosto_drmmer</t>
+  </si>
+  <si>
+    <t>Александрова Арина Игоревна</t>
+  </si>
+  <si>
+    <t>@aaleksndrova</t>
+  </si>
+  <si>
+    <t>Дудка Ирина Александровна</t>
+  </si>
+  <si>
+    <t>@irishkalala</t>
+  </si>
+  <si>
+    <t>Щербакова Арина Олеговна</t>
+  </si>
+  <si>
+    <t>@Renai_ssanse</t>
+  </si>
+  <si>
+    <t>Чуракова Варвара Степановна</t>
+  </si>
+  <si>
+    <t>@vakachu</t>
+  </si>
+  <si>
+    <t>Аветисян Александра Аргиштовна</t>
+  </si>
+  <si>
+    <t>@cchheerryys</t>
+  </si>
+  <si>
+    <t>Гранова Елизавета Максимовна</t>
+  </si>
+  <si>
+    <t>@ligrnv</t>
+  </si>
+  <si>
+    <t>@to1chok</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -788,6 +788,11 @@
       <color theme="1"/>
       <name val="Exo 2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Exo 2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -809,11 +814,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1130,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE46B9E-CB95-154E-9DD8-67E11D572C57}">
   <dimension ref="A1:B120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="97" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="75" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18:E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1142,122 +1148,122 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>168</v>
+        <v>154</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>189</v>
+        <v>173</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>191</v>
+        <v>175</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>193</v>
+        <v>177</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>148</v>
+        <v>136</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>195</v>
+        <v>179</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>184</v>
+        <v>170</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1270,138 +1276,138 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1422,114 +1428,114 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2" t="s">
-        <v>89</v>
+        <v>221</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>88</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
-        <v>105</v>
+        <v>223</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>104</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2" t="s">
-        <v>161</v>
+        <v>229</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>160</v>
+        <v>230</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1542,50 +1548,50 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1598,10 +1604,10 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1614,74 +1620,74 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>231</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>90</v>
+        <v>232</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1694,34 +1700,34 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1734,50 +1740,50 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2" t="s">
-        <v>27</v>
+        <v>233</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>26</v>
+        <v>234</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2" t="s">
-        <v>45</v>
+        <v>235</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>44</v>
+        <v>236</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1798,18 +1804,18 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1822,178 +1828,178 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>124</v>
+        <v>239</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="3" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2006,98 +2012,98 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2" t="s">
-        <v>75</v>
+        <v>237</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>74</v>
+        <v>238</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/uchast.xlsx
+++ b/uchast.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katusha/Desktop/Shend-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B62F93-29A9-9E49-A16C-44D8DA4BED59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CE9D80-A300-C44F-9BE6-D26EF180082C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{69EDCAD3-68D2-9242-9A5A-15D2176049E9}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="238">
   <si>
     <t>@mankyt</t>
   </si>
@@ -734,12 +734,6 @@
   </si>
   <si>
     <t>@Renai_ssanse</t>
-  </si>
-  <si>
-    <t>Чуракова Варвара Степановна</t>
-  </si>
-  <si>
-    <t>@vakachu</t>
   </si>
   <si>
     <t>Аветисян Александра Аргиштовна</t>
@@ -1134,10 +1128,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE46B9E-CB95-154E-9DD8-67E11D572C57}">
-  <dimension ref="A1:B120"/>
+  <dimension ref="A1:B119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="75" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:E104"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="143" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78:XFD78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1772,337 +1766,329 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2" t="s">
-        <v>235</v>
+        <v>199</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>236</v>
+        <v>200</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2" t="s">
-        <v>199</v>
+        <v>9</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>200</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2" t="s">
-        <v>13</v>
+        <v>201</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>12</v>
+        <v>202</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2" t="s">
-        <v>201</v>
+        <v>45</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>202</v>
+        <v>44</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>4</v>
+        <v>155</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>115</v>
+        <v>36</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2" t="s">
-        <v>37</v>
+        <v>203</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>36</v>
+        <v>204</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2" t="s">
-        <v>203</v>
+        <v>122</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>204</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2" t="s">
-        <v>51</v>
+        <v>160</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>50</v>
+        <v>159</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2" t="s">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>159</v>
+        <v>237</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>239</v>
+        <v>96</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="2" t="s">
-        <v>91</v>
+      <c r="A95" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>90</v>
+        <v>206</v>
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="3" t="s">
-        <v>205</v>
+      <c r="A96" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2" t="s">
-        <v>207</v>
+        <v>132</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>208</v>
+        <v>131</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2" t="s">
-        <v>132</v>
+        <v>209</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>131</v>
+        <v>210</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2" t="s">
-        <v>209</v>
+        <v>140</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>210</v>
+        <v>139</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2" t="s">
-        <v>140</v>
+        <v>211</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>139</v>
+        <v>212</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2" t="s">
-        <v>211</v>
+        <v>31</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>212</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2" t="s">
-        <v>59</v>
+        <v>146</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>58</v>
+        <v>145</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2" t="s">
-        <v>146</v>
+        <v>47</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>145</v>
+        <v>46</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2" t="s">
-        <v>47</v>
+        <v>213</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>46</v>
+        <v>214</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2" t="s">
-        <v>213</v>
+        <v>101</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>214</v>
+        <v>100</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2" t="s">
-        <v>109</v>
+        <v>215</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>108</v>
+        <v>216</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2" t="s">
-        <v>237</v>
+        <v>83</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>238</v>
+        <v>82</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2" t="s">
-        <v>83</v>
+        <v>152</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>82</v>
+        <v>151</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2" t="s">
-        <v>152</v>
+        <v>57</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>151</v>
+        <v>56</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2" t="s">
-        <v>99</v>
+        <v>217</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>98</v>
+        <v>218</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2" t="s">
-        <v>217</v>
+        <v>43</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B120" s="1" t="s">
         <v>42</v>
       </c>
     </row>

--- a/uchast.xlsx
+++ b/uchast.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katusha/Desktop/Shend-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CE9D80-A300-C44F-9BE6-D26EF180082C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EA1DDF-C4C4-4C43-B72A-CB190B48EEA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{69EDCAD3-68D2-9242-9A5A-15D2176049E9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{69EDCAD3-68D2-9242-9A5A-15D2176049E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="239">
   <si>
     <t>@mankyt</t>
   </si>
@@ -43,12 +43,6 @@
     <t>Бегунов Александр Сергеевич</t>
   </si>
   <si>
-    <t>@darri_d</t>
-  </si>
-  <si>
-    <t>Строкова Дарина Дмитриевна</t>
-  </si>
-  <si>
     <t>@Gleb2102</t>
   </si>
   <si>
@@ -331,12 +325,6 @@
     <t>Глущенко Ксения Сергеевна</t>
   </si>
   <si>
-    <t>@trumar_11</t>
-  </si>
-  <si>
-    <t>Трушкина Марина Геннадьевна</t>
-  </si>
-  <si>
     <t>@kswssq7</t>
   </si>
   <si>
@@ -367,12 +355,6 @@
     <t>Семенов Дмитрий Сергеевич</t>
   </si>
   <si>
-    <t>@harisashi</t>
-  </si>
-  <si>
-    <t>Тадевосян Мария Врамовна</t>
-  </si>
-  <si>
     <t>Шашков Анатолий Сергеевич</t>
   </si>
   <si>
@@ -430,12 +412,6 @@
     <t>Шкель Антон Алексеевич</t>
   </si>
   <si>
-    <t>@vvpolis</t>
-  </si>
-  <si>
-    <t>Полищук Вячеслав Владимирович</t>
-  </si>
-  <si>
     <t>@silkkroad</t>
   </si>
   <si>
@@ -508,9 +484,6 @@
     <t>Кирпичёва Анна Алексеевна</t>
   </si>
   <si>
-    <t>@kapl_gnom</t>
-  </si>
-  <si>
     <t>Каплина Софья Владиславовна</t>
   </si>
   <si>
@@ -550,12 +523,6 @@
     <t>Гаврилов Тимофей Сергеевич</t>
   </si>
   <si>
-    <t>@mnacik_s</t>
-  </si>
-  <si>
-    <t>Мнацаканян Александр Андреевич</t>
-  </si>
-  <si>
     <t>Нестерова Анна Олеговна</t>
   </si>
   <si>
@@ -634,12 +601,6 @@
     <t>@Sn1gggers</t>
   </si>
   <si>
-    <t>Евстигнеев Макар Дмитриевич</t>
-  </si>
-  <si>
-    <t>@evctik</t>
-  </si>
-  <si>
     <t>Гафиева Татьяна Игоревна</t>
   </si>
   <si>
@@ -670,12 +631,6 @@
     <t>@meowwow66</t>
   </si>
   <si>
-    <t>Лапа Виктория Тарасовна</t>
-  </si>
-  <si>
-    <t>@vikalapa2005</t>
-  </si>
-  <si>
     <t>Чмелёва Софья Вадимовна</t>
   </si>
   <si>
@@ -694,12 +649,6 @@
     <t>@bairta_batalaeva</t>
   </si>
   <si>
-    <t>Жидченко Алина Андреевна</t>
-  </si>
-  <si>
-    <t>#N/A</t>
-  </si>
-  <si>
     <t>капустин артем владимирович</t>
   </si>
   <si>
@@ -712,12 +661,6 @@
     <t>@Fl1ckezz</t>
   </si>
   <si>
-    <t>Рогацевич Григорий Андреевич</t>
-  </si>
-  <si>
-    <t>@prosto_drmmer</t>
-  </si>
-  <si>
     <t>Александрова Арина Игоревна</t>
   </si>
   <si>
@@ -748,14 +691,74 @@
     <t>@ligrnv</t>
   </si>
   <si>
-    <t>@to1chok</t>
+    <t>Кобякова Ксения Антоновна</t>
+  </si>
+  <si>
+    <t>@ksu_kka</t>
+  </si>
+  <si>
+    <t>Жидченко Алинаа Андреевна</t>
+  </si>
+  <si>
+    <t>@runnissa</t>
+  </si>
+  <si>
+    <t>Нуруллин Анвар Рауфович</t>
+  </si>
+  <si>
+    <t>@derfor1k3</t>
+  </si>
+  <si>
+    <t>Елистартов Георгий Романович</t>
+  </si>
+  <si>
+    <t>@gera_pumpkin</t>
+  </si>
+  <si>
+    <t>Хомяк Богдан Олегович</t>
+  </si>
+  <si>
+    <t>@stillBodya</t>
+  </si>
+  <si>
+    <t>новикова ксения александровна</t>
+  </si>
+  <si>
+    <t>@smoiia</t>
+  </si>
+  <si>
+    <t>Ходнева Анастасия Васильевна</t>
+  </si>
+  <si>
+    <t>@Salmon_on_sale</t>
+  </si>
+  <si>
+    <t>@1tolchok1</t>
+  </si>
+  <si>
+    <t>Копишинский Алексей Юрьевич</t>
+  </si>
+  <si>
+    <t>@Lehakipishnoy9</t>
+  </si>
+  <si>
+    <t>Князева Диана Сергеевна</t>
+  </si>
+  <si>
+    <t>@diinaszz</t>
+  </si>
+  <si>
+    <t>Жидилева Ангелина Алексеевна</t>
+  </si>
+  <si>
+    <t>@lina_linnnnn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -787,6 +790,12 @@
       <color theme="1"/>
       <name val="Exo 2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF52ADF7"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -808,12 +817,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1128,10 +1138,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE46B9E-CB95-154E-9DD8-67E11D572C57}">
-  <dimension ref="A1:B119"/>
+  <dimension ref="A1:C120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="143" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78:XFD78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1140,956 +1150,1324 @@
     <col min="2" max="2" width="36.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C27" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
+      <c r="C28" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B30" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="2" t="s">
+      <c r="C30" s="1">
         <v>3</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>36</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>221</v>
+      </c>
+      <c r="C32" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>125</v>
+      </c>
+      <c r="C33" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>8</v>
+      </c>
+      <c r="C34" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>202</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C36" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>75</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B38" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C38" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C39" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C41" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="2" t="s">
+      <c r="B42" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C42" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C44" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C46" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C47" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C52" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C56" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C62" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C64" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C65" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C66" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C67" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C70" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C71" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C72" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C73" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C75" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C77" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C78" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C79" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C80" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C83" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C84" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C85" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C86" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C87" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C88" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="2" t="s">
+      <c r="B89" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C89" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C90" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C91" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C92" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C93" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C94" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C95" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C96" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C97" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C98" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C99" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C100" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C101" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C102" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C103" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C104" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C105" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C106" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C107" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C108" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C109" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C110" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C111" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C112" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C113" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B114" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="2" t="s">
+      <c r="C114" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C115" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C116" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C117" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C118" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C119" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B120" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>42</v>
+      <c r="C120" s="1">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/uchast.xlsx
+++ b/uchast.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katusha/Desktop/Shend-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EA1DDF-C4C4-4C43-B72A-CB190B48EEA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302D3DB5-4BB2-2749-A488-9C7B93F14552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{69EDCAD3-68D2-9242-9A5A-15D2176049E9}"/>
   </bookViews>
@@ -1141,7 +1141,7 @@
   <dimension ref="A1:C120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1157,9 +1157,7 @@
       <c r="B1" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C1" s="1">
-        <v>1</v>
-      </c>
+      <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
@@ -1168,9 +1166,7 @@
       <c r="B2" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
@@ -1179,9 +1175,7 @@
       <c r="B3" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
@@ -1190,9 +1184,7 @@
       <c r="B4" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
@@ -1201,9 +1193,7 @@
       <c r="B5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
@@ -1212,9 +1202,7 @@
       <c r="B6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
@@ -1223,9 +1211,7 @@
       <c r="B7" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
@@ -1234,9 +1220,7 @@
       <c r="B8" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
@@ -1245,9 +1229,7 @@
       <c r="B9" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
@@ -1256,9 +1238,7 @@
       <c r="B10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
@@ -1267,9 +1247,7 @@
       <c r="B11" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
@@ -1278,9 +1256,7 @@
       <c r="B12" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
@@ -1289,9 +1265,7 @@
       <c r="B13" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="1">
-        <v>2</v>
-      </c>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
@@ -1300,9 +1274,7 @@
       <c r="B14" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="1">
-        <v>2</v>
-      </c>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
@@ -1311,9 +1283,7 @@
       <c r="B15" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C15" s="1">
-        <v>2</v>
-      </c>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
@@ -1322,9 +1292,7 @@
       <c r="B16" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C16" s="1">
-        <v>2</v>
-      </c>
+      <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
@@ -1333,9 +1301,7 @@
       <c r="B17" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C17" s="1">
-        <v>2</v>
-      </c>
+      <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
@@ -1344,9 +1310,7 @@
       <c r="B18" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="1">
-        <v>2</v>
-      </c>
+      <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
@@ -1355,9 +1319,7 @@
       <c r="B19" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C19" s="1">
-        <v>2</v>
-      </c>
+      <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
@@ -1366,9 +1328,7 @@
       <c r="B20" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C20" s="1">
-        <v>2</v>
-      </c>
+      <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
@@ -1377,9 +1337,7 @@
       <c r="B21" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C21" s="1">
-        <v>2</v>
-      </c>
+      <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
@@ -1388,9 +1346,7 @@
       <c r="B22" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C22" s="1">
-        <v>2</v>
-      </c>
+      <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
@@ -1399,9 +1355,7 @@
       <c r="B23" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C23" s="1">
-        <v>2</v>
-      </c>
+      <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
@@ -1410,9 +1364,7 @@
       <c r="B24" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C24" s="1">
-        <v>2</v>
-      </c>
+      <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
@@ -1421,9 +1373,7 @@
       <c r="B25" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C25" s="1">
-        <v>3</v>
-      </c>
+      <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
@@ -1432,9 +1382,7 @@
       <c r="B26" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C26" s="1">
-        <v>3</v>
-      </c>
+      <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
@@ -1443,9 +1391,7 @@
       <c r="B27" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C27" s="1">
-        <v>3</v>
-      </c>
+      <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
@@ -1454,9 +1400,7 @@
       <c r="B28" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C28" s="1">
-        <v>3</v>
-      </c>
+      <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
@@ -1465,9 +1409,7 @@
       <c r="B29" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C29" s="1">
-        <v>3</v>
-      </c>
+      <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
@@ -1476,9 +1418,7 @@
       <c r="B30" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="1">
-        <v>3</v>
-      </c>
+      <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
@@ -1487,9 +1427,7 @@
       <c r="B31" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="1">
-        <v>3</v>
-      </c>
+      <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
@@ -1498,9 +1436,7 @@
       <c r="B32" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C32" s="1">
-        <v>3</v>
-      </c>
+      <c r="C32" s="1"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
@@ -1509,9 +1445,7 @@
       <c r="B33" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C33" s="1">
-        <v>3</v>
-      </c>
+      <c r="C33" s="1"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
@@ -1520,9 +1454,7 @@
       <c r="B34" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="1">
-        <v>3</v>
-      </c>
+      <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
@@ -1531,9 +1463,7 @@
       <c r="B35" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="1">
-        <v>3</v>
-      </c>
+      <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
@@ -1542,9 +1472,7 @@
       <c r="B36" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C36" s="1">
-        <v>3</v>
-      </c>
+      <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
@@ -1553,9 +1481,7 @@
       <c r="B37" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="1">
-        <v>4</v>
-      </c>
+      <c r="C37" s="1"/>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
@@ -1564,9 +1490,7 @@
       <c r="B38" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C38" s="1">
-        <v>4</v>
-      </c>
+      <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
@@ -1575,9 +1499,7 @@
       <c r="B39" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C39" s="1">
-        <v>4</v>
-      </c>
+      <c r="C39" s="1"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
@@ -1586,9 +1508,7 @@
       <c r="B40" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="1">
-        <v>4</v>
-      </c>
+      <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
@@ -1597,9 +1517,7 @@
       <c r="B41" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C41" s="1">
-        <v>4</v>
-      </c>
+      <c r="C41" s="1"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
@@ -1608,9 +1526,7 @@
       <c r="B42" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C42" s="1">
-        <v>4</v>
-      </c>
+      <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
@@ -1619,9 +1535,7 @@
       <c r="B43" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C43" s="1">
-        <v>4</v>
-      </c>
+      <c r="C43" s="1"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
@@ -1630,9 +1544,7 @@
       <c r="B44" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C44" s="1">
-        <v>4</v>
-      </c>
+      <c r="C44" s="1"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
@@ -1641,9 +1553,7 @@
       <c r="B45" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C45" s="1">
-        <v>4</v>
-      </c>
+      <c r="C45" s="1"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
@@ -1652,9 +1562,7 @@
       <c r="B46" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C46" s="1">
-        <v>4</v>
-      </c>
+      <c r="C46" s="1"/>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
@@ -1663,9 +1571,7 @@
       <c r="B47" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C47" s="1">
-        <v>4</v>
-      </c>
+      <c r="C47" s="1"/>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
@@ -1674,9 +1580,7 @@
       <c r="B48" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="1">
-        <v>4</v>
-      </c>
+      <c r="C48" s="1"/>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
@@ -1685,9 +1589,7 @@
       <c r="B49" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C49" s="1">
-        <v>5</v>
-      </c>
+      <c r="C49" s="1"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
@@ -1696,9 +1598,7 @@
       <c r="B50" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C50" s="1">
-        <v>5</v>
-      </c>
+      <c r="C50" s="1"/>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
@@ -1707,9 +1607,7 @@
       <c r="B51" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C51" s="1">
-        <v>5</v>
-      </c>
+      <c r="C51" s="1"/>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
@@ -1718,9 +1616,7 @@
       <c r="B52" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C52" s="1">
-        <v>5</v>
-      </c>
+      <c r="C52" s="1"/>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
@@ -1729,9 +1625,7 @@
       <c r="B53" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C53" s="1">
-        <v>5</v>
-      </c>
+      <c r="C53" s="1"/>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
@@ -1740,9 +1634,7 @@
       <c r="B54" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C54" s="1">
-        <v>5</v>
-      </c>
+      <c r="C54" s="1"/>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2" t="s">
@@ -1751,9 +1643,7 @@
       <c r="B55" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="1">
-        <v>5</v>
-      </c>
+      <c r="C55" s="1"/>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2" t="s">
@@ -1762,9 +1652,7 @@
       <c r="B56" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C56" s="1">
-        <v>5</v>
-      </c>
+      <c r="C56" s="1"/>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
@@ -1773,9 +1661,7 @@
       <c r="B57" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C57" s="1">
-        <v>5</v>
-      </c>
+      <c r="C57" s="1"/>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
@@ -1784,9 +1670,7 @@
       <c r="B58" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C58" s="1">
-        <v>5</v>
-      </c>
+      <c r="C58" s="1"/>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
@@ -1795,9 +1679,7 @@
       <c r="B59" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C59" s="1">
-        <v>5</v>
-      </c>
+      <c r="C59" s="1"/>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2" t="s">
@@ -1806,9 +1688,7 @@
       <c r="B60" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C60" s="1">
-        <v>5</v>
-      </c>
+      <c r="C60" s="1"/>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
@@ -1817,9 +1697,7 @@
       <c r="B61" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C61" s="1">
-        <v>6</v>
-      </c>
+      <c r="C61" s="1"/>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2" t="s">
@@ -1828,9 +1706,7 @@
       <c r="B62" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C62" s="1">
-        <v>6</v>
-      </c>
+      <c r="C62" s="1"/>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
@@ -1839,9 +1715,7 @@
       <c r="B63" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C63" s="1">
-        <v>6</v>
-      </c>
+      <c r="C63" s="1"/>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2" t="s">
@@ -1850,9 +1724,7 @@
       <c r="B64" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C64" s="1">
-        <v>6</v>
-      </c>
+      <c r="C64" s="1"/>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
@@ -1861,9 +1733,7 @@
       <c r="B65" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C65" s="1">
-        <v>6</v>
-      </c>
+      <c r="C65" s="1"/>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
@@ -1872,9 +1742,7 @@
       <c r="B66" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C66" s="1">
-        <v>6</v>
-      </c>
+      <c r="C66" s="1"/>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2" t="s">
@@ -1883,9 +1751,7 @@
       <c r="B67" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C67" s="1">
-        <v>6</v>
-      </c>
+      <c r="C67" s="1"/>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
@@ -1894,9 +1760,7 @@
       <c r="B68" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C68" s="1">
-        <v>6</v>
-      </c>
+      <c r="C68" s="1"/>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
@@ -1905,9 +1769,7 @@
       <c r="B69" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C69" s="1">
-        <v>6</v>
-      </c>
+      <c r="C69" s="1"/>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
@@ -1916,9 +1778,7 @@
       <c r="B70" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C70" s="1">
-        <v>6</v>
-      </c>
+      <c r="C70" s="1"/>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2" t="s">
@@ -1927,9 +1787,7 @@
       <c r="B71" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C71" s="1">
-        <v>6</v>
-      </c>
+      <c r="C71" s="1"/>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
@@ -1938,9 +1796,7 @@
       <c r="B72" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C72" s="1">
-        <v>6</v>
-      </c>
+      <c r="C72" s="1"/>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
@@ -1949,9 +1805,7 @@
       <c r="B73" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C73" s="1">
-        <v>7</v>
-      </c>
+      <c r="C73" s="1"/>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
@@ -1960,9 +1814,7 @@
       <c r="B74" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C74" s="1">
-        <v>7</v>
-      </c>
+      <c r="C74" s="1"/>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
@@ -1971,9 +1823,7 @@
       <c r="B75" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C75" s="1">
-        <v>7</v>
-      </c>
+      <c r="C75" s="1"/>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
@@ -1982,9 +1832,7 @@
       <c r="B76" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C76" s="1">
-        <v>7</v>
-      </c>
+      <c r="C76" s="1"/>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2" t="s">
@@ -1993,9 +1841,7 @@
       <c r="B77" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C77" s="1">
-        <v>7</v>
-      </c>
+      <c r="C77" s="1"/>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2" t="s">
@@ -2004,9 +1850,7 @@
       <c r="B78" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C78" s="1">
-        <v>7</v>
-      </c>
+      <c r="C78" s="1"/>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2" t="s">
@@ -2015,9 +1859,7 @@
       <c r="B79" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C79" s="1">
-        <v>7</v>
-      </c>
+      <c r="C79" s="1"/>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
@@ -2026,9 +1868,7 @@
       <c r="B80" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C80" s="1">
-        <v>7</v>
-      </c>
+      <c r="C80" s="1"/>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2" t="s">
@@ -2037,9 +1877,7 @@
       <c r="B81" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C81" s="1">
-        <v>7</v>
-      </c>
+      <c r="C81" s="1"/>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="2" t="s">
@@ -2048,9 +1886,7 @@
       <c r="B82" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C82" s="1">
-        <v>7</v>
-      </c>
+      <c r="C82" s="1"/>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2" t="s">
@@ -2059,9 +1895,7 @@
       <c r="B83" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C83" s="1">
-        <v>7</v>
-      </c>
+      <c r="C83" s="1"/>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
@@ -2070,9 +1904,7 @@
       <c r="B84" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C84" s="1">
-        <v>7</v>
-      </c>
+      <c r="C84" s="1"/>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2" t="s">
@@ -2081,9 +1913,7 @@
       <c r="B85" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C85" s="1">
-        <v>8</v>
-      </c>
+      <c r="C85" s="1"/>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2" t="s">
@@ -2092,9 +1922,7 @@
       <c r="B86" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C86" s="1">
-        <v>8</v>
-      </c>
+      <c r="C86" s="1"/>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2" t="s">
@@ -2103,9 +1931,7 @@
       <c r="B87" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C87" s="1">
-        <v>8</v>
-      </c>
+      <c r="C87" s="1"/>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2" t="s">
@@ -2114,9 +1940,7 @@
       <c r="B88" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C88" s="1">
-        <v>8</v>
-      </c>
+      <c r="C88" s="1"/>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2" t="s">
@@ -2125,9 +1949,7 @@
       <c r="B89" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C89" s="1">
-        <v>8</v>
-      </c>
+      <c r="C89" s="1"/>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
@@ -2136,9 +1958,7 @@
       <c r="B90" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C90" s="1">
-        <v>8</v>
-      </c>
+      <c r="C90" s="1"/>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2" t="s">
@@ -2147,9 +1967,7 @@
       <c r="B91" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C91" s="1">
-        <v>8</v>
-      </c>
+      <c r="C91" s="1"/>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="2" t="s">
@@ -2158,9 +1976,7 @@
       <c r="B92" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C92" s="1">
-        <v>8</v>
-      </c>
+      <c r="C92" s="1"/>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="2" t="s">
@@ -2169,9 +1985,7 @@
       <c r="B93" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C93" s="1">
-        <v>8</v>
-      </c>
+      <c r="C93" s="1"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="2" t="s">
@@ -2180,9 +1994,7 @@
       <c r="B94" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C94" s="1">
-        <v>8</v>
-      </c>
+      <c r="C94" s="1"/>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2" t="s">
@@ -2191,9 +2003,7 @@
       <c r="B95" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C95" s="1">
-        <v>8</v>
-      </c>
+      <c r="C95" s="1"/>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="3" t="s">
@@ -2202,9 +2012,7 @@
       <c r="B96" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C96" s="1">
-        <v>8</v>
-      </c>
+      <c r="C96" s="1"/>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2" t="s">
@@ -2213,9 +2021,7 @@
       <c r="B97" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C97" s="1">
-        <v>9</v>
-      </c>
+      <c r="C97" s="1"/>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="2" t="s">
@@ -2224,9 +2030,7 @@
       <c r="B98" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C98" s="1">
-        <v>9</v>
-      </c>
+      <c r="C98" s="1"/>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="2" t="s">
@@ -2235,9 +2039,7 @@
       <c r="B99" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C99" s="1">
-        <v>9</v>
-      </c>
+      <c r="C99" s="1"/>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="2" t="s">
@@ -2246,9 +2048,7 @@
       <c r="B100" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C100" s="1">
-        <v>9</v>
-      </c>
+      <c r="C100" s="1"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="2" t="s">
@@ -2257,9 +2057,7 @@
       <c r="B101" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C101" s="1">
-        <v>9</v>
-      </c>
+      <c r="C101" s="1"/>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="2" t="s">
@@ -2268,9 +2066,7 @@
       <c r="B102" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C102" s="1">
-        <v>9</v>
-      </c>
+      <c r="C102" s="1"/>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2" t="s">
@@ -2279,9 +2075,7 @@
       <c r="B103" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C103" s="1">
-        <v>9</v>
-      </c>
+      <c r="C103" s="1"/>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="2" t="s">
@@ -2290,9 +2084,7 @@
       <c r="B104" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C104" s="1">
-        <v>9</v>
-      </c>
+      <c r="C104" s="1"/>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="2" t="s">
@@ -2301,9 +2093,7 @@
       <c r="B105" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C105" s="1">
-        <v>9</v>
-      </c>
+      <c r="C105" s="1"/>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="2" t="s">
@@ -2312,9 +2102,7 @@
       <c r="B106" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C106" s="1">
-        <v>9</v>
-      </c>
+      <c r="C106" s="1"/>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2" t="s">
@@ -2323,9 +2111,7 @@
       <c r="B107" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C107" s="1">
-        <v>9</v>
-      </c>
+      <c r="C107" s="1"/>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="2" t="s">
@@ -2334,9 +2120,7 @@
       <c r="B108" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C108" s="1">
-        <v>9</v>
-      </c>
+      <c r="C108" s="1"/>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="2" t="s">
@@ -2345,9 +2129,7 @@
       <c r="B109" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C109" s="1">
-        <v>10</v>
-      </c>
+      <c r="C109" s="1"/>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2" t="s">
@@ -2356,9 +2138,7 @@
       <c r="B110" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C110" s="1">
-        <v>10</v>
-      </c>
+      <c r="C110" s="1"/>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2" t="s">
@@ -2367,9 +2147,7 @@
       <c r="B111" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C111" s="1">
-        <v>10</v>
-      </c>
+      <c r="C111" s="1"/>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2" t="s">
@@ -2378,9 +2156,7 @@
       <c r="B112" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C112" s="1">
-        <v>10</v>
-      </c>
+      <c r="C112" s="1"/>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="2" t="s">
@@ -2389,9 +2165,7 @@
       <c r="B113" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C113" s="1">
-        <v>10</v>
-      </c>
+      <c r="C113" s="1"/>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="2" t="s">
@@ -2400,9 +2174,7 @@
       <c r="B114" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C114" s="1">
-        <v>10</v>
-      </c>
+      <c r="C114" s="1"/>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="2" t="s">
@@ -2411,9 +2183,7 @@
       <c r="B115" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C115" s="1">
-        <v>10</v>
-      </c>
+      <c r="C115" s="1"/>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2" t="s">
@@ -2422,9 +2192,7 @@
       <c r="B116" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C116" s="1">
-        <v>10</v>
-      </c>
+      <c r="C116" s="1"/>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="2" t="s">
@@ -2433,9 +2201,7 @@
       <c r="B117" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C117" s="1">
-        <v>10</v>
-      </c>
+      <c r="C117" s="1"/>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2" t="s">
@@ -2444,9 +2210,7 @@
       <c r="B118" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C118" s="1">
-        <v>10</v>
-      </c>
+      <c r="C118" s="1"/>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2" t="s">
@@ -2455,9 +2219,7 @@
       <c r="B119" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C119" s="1">
-        <v>10</v>
-      </c>
+      <c r="C119" s="1"/>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="2" t="s">
@@ -2466,9 +2228,7 @@
       <c r="B120" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C120" s="1">
-        <v>10</v>
-      </c>
+      <c r="C120" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/uchast.xlsx
+++ b/uchast.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katusha/Desktop/Shend-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302D3DB5-4BB2-2749-A488-9C7B93F14552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38EAB58-4A0D-9B48-BFE3-94507C37D58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{69EDCAD3-68D2-9242-9A5A-15D2176049E9}"/>
   </bookViews>
@@ -691,6 +691,9 @@
     <t>@ligrnv</t>
   </si>
   <si>
+    <t>@to1chok</t>
+  </si>
+  <si>
     <t>Кобякова Ксения Антоновна</t>
   </si>
   <si>
@@ -731,9 +734,6 @@
   </si>
   <si>
     <t>@Salmon_on_sale</t>
-  </si>
-  <si>
-    <t>@1tolchok1</t>
   </si>
   <si>
     <t>Копишинский Алексей Юрьевич</t>
@@ -1140,8 +1140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE46B9E-CB95-154E-9DD8-67E11D572C57}">
   <dimension ref="A1:C120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1314,10 +1314,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C19" s="1"/>
     </row>
@@ -1431,10 +1431,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C32" s="1"/>
     </row>
@@ -1521,10 +1521,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C42" s="1"/>
     </row>
@@ -1611,10 +1611,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C52" s="1"/>
     </row>
@@ -1836,19 +1836,19 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C77" s="1"/>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C78" s="1"/>
     </row>
@@ -1863,10 +1863,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C80" s="1"/>
     </row>
@@ -1983,7 +1983,7 @@
         <v>106</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="C93" s="1"/>
     </row>
